--- a/Documentation/TODO list.xlsx
+++ b/Documentation/TODO list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>Balance Boss Fights</t>
   </si>
@@ -65,6 +65,48 @@
   </si>
   <si>
     <t>Fix crystal levels - hitting the pile goes to the wrong place</t>
+  </si>
+  <si>
+    <t>Tap left/right tutorial to be moved to first puzzle</t>
+  </si>
+  <si>
+    <t>Fix stalactite animator warning on drop when destroyed (boss)</t>
+  </si>
+  <si>
+    <t>Fix RB Jr's jump animation</t>
+  </si>
+  <si>
+    <t>Set level cave colours</t>
+  </si>
+  <si>
+    <t>Level name to slide in at level startup, then slide out</t>
+  </si>
+  <si>
+    <t>Level name to be shown on pause</t>
+  </si>
+  <si>
+    <t>Stalactites to shatter instead of animation</t>
+  </si>
+  <si>
+    <t>Projectiles on boss fight to ignore only stals for 1.6m</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Rockbreath health images to be updated</t>
+  </si>
+  <si>
+    <t>Level score mechanics to be finalised</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -123,7 +165,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,133 +542,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B10">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:C24">
+    <sortCondition ref="A1"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Incomplete">
+      <formula>NOT(ISERROR(SEARCH("Incomplete",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
